--- a/biology/Zoologie/Amazone_de_Saint-Vincent/Amazone_de_Saint-Vincent.xlsx
+++ b/biology/Zoologie/Amazone_de_Saint-Vincent/Amazone_de_Saint-Vincent.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Amazona guildingii
 L'Amazone de Saint-Vincent (Amazona guilingii) est une espèce d'oiseaux néotropicaux de la famille des Psittacidae (la famille des perroquets).
@@ -513,7 +525,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce vit sur l'île de Saint-Vincent, d'où son nom spécifique français.
 </t>
@@ -544,7 +558,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle peuple les forêts humides des versants orientaux et occidentaux de cette île entre 125 et 1 000 m d'altitude.
 </t>
@@ -575,7 +591,9 @@
           <t>Nidification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La femelle pond deux œufs. L'incubation dure 28 jours.
 </t>
@@ -606,9 +624,11 @@
           <t>Emblème</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'Amazone de Saint-Vincent est l'oiseau national de Saint-Vincent-et-les-Grenadines[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Amazone de Saint-Vincent est l'oiseau national de Saint-Vincent-et-les-Grenadines.
 </t>
         </is>
       </c>
